--- a/resources/GSTR3/notes.xlsx
+++ b/resources/GSTR3/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Gestion-des-notes-avec-XML\resources\GSTR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEEC7DA-0AD8-40E3-9FCC-D3846D361BED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C35F6E-2195-4255-BBD9-52CDF8EA3D8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="15375" windowHeight="8115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>CNE</t>
   </si>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t>Note_GSTR56</t>
-  </si>
-  <si>
-    <t>MOY</t>
   </si>
 </sst>
 </file>
@@ -687,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -708,7 +705,7 @@
     <col min="11" max="11" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -742,11 +739,8 @@
       <c r="K1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>660</v>
       </c>
@@ -774,12 +768,8 @@
       <c r="K2">
         <v>12</v>
       </c>
-      <c r="L2">
-        <f>AVERAGE(D2:K2)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>661</v>
       </c>
@@ -807,12 +797,8 @@
       <c r="K3">
         <v>12</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L48" si="0">AVERAGE(D3:K3)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>662</v>
       </c>
@@ -840,12 +826,8 @@
       <c r="K4">
         <v>12</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>663</v>
       </c>
@@ -873,12 +855,8 @@
       <c r="K5">
         <v>12</v>
       </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>664</v>
       </c>
@@ -906,12 +884,8 @@
       <c r="K6">
         <v>12</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>665</v>
       </c>
@@ -939,12 +913,8 @@
       <c r="K7">
         <v>12</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>666</v>
       </c>
@@ -972,12 +942,8 @@
       <c r="K8">
         <v>12</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>667</v>
       </c>
@@ -1005,12 +971,8 @@
       <c r="K9">
         <v>12</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>668</v>
       </c>
@@ -1038,12 +1000,8 @@
       <c r="K10">
         <v>12</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>13.833333333333334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>669</v>
       </c>
@@ -1071,12 +1029,8 @@
       <c r="K11">
         <v>12</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>670</v>
       </c>
@@ -1104,12 +1058,8 @@
       <c r="K12">
         <v>12</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>671</v>
       </c>
@@ -1137,12 +1087,8 @@
       <c r="K13">
         <v>12</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>672</v>
       </c>
@@ -1170,12 +1116,8 @@
       <c r="K14">
         <v>12</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>14.166666666666666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>673</v>
       </c>
@@ -1203,12 +1145,8 @@
       <c r="K15">
         <v>12</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>674</v>
       </c>
@@ -1236,12 +1174,8 @@
       <c r="K16">
         <v>12</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>675</v>
       </c>
@@ -1269,12 +1203,8 @@
       <c r="K17">
         <v>12</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>676</v>
       </c>
@@ -1302,12 +1232,8 @@
       <c r="K18">
         <v>12</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>677</v>
       </c>
@@ -1335,12 +1261,8 @@
       <c r="K19">
         <v>12</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>678</v>
       </c>
@@ -1368,12 +1290,8 @@
       <c r="K20">
         <v>12</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>679</v>
       </c>
@@ -1401,12 +1319,8 @@
       <c r="K21">
         <v>12</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>12.333333333333334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>680</v>
       </c>
@@ -1434,12 +1348,8 @@
       <c r="K22">
         <v>12</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>14.666666666666666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>681</v>
       </c>
@@ -1467,12 +1377,8 @@
       <c r="K23">
         <v>12</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>682</v>
       </c>
@@ -1500,12 +1406,8 @@
       <c r="K24">
         <v>12</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>683</v>
       </c>
@@ -1533,12 +1435,8 @@
       <c r="K25">
         <v>12</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>684</v>
       </c>
@@ -1566,12 +1464,8 @@
       <c r="K26">
         <v>12</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>685</v>
       </c>
@@ -1599,12 +1493,8 @@
       <c r="K27">
         <v>12</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>686</v>
       </c>
@@ -1632,12 +1522,8 @@
       <c r="K28">
         <v>12</v>
       </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>687</v>
       </c>
@@ -1665,12 +1551,8 @@
       <c r="K29">
         <v>12</v>
       </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>688</v>
       </c>
@@ -1698,12 +1580,8 @@
       <c r="K30">
         <v>12</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>689</v>
       </c>
@@ -1731,12 +1609,8 @@
       <c r="K31">
         <v>12</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>690</v>
       </c>
@@ -1764,12 +1638,8 @@
       <c r="K32">
         <v>12</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>691</v>
       </c>
@@ -1797,12 +1667,8 @@
       <c r="K33">
         <v>12</v>
       </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>692</v>
       </c>
@@ -1830,12 +1696,8 @@
       <c r="K34">
         <v>12</v>
       </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>693</v>
       </c>
@@ -1863,12 +1725,8 @@
       <c r="K35">
         <v>12</v>
       </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>694</v>
       </c>
@@ -1896,12 +1754,8 @@
       <c r="K36">
         <v>12</v>
       </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>695</v>
       </c>
@@ -1929,12 +1783,8 @@
       <c r="K37">
         <v>12</v>
       </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>696</v>
       </c>
@@ -1962,12 +1812,8 @@
       <c r="K38">
         <v>12</v>
       </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>697</v>
       </c>
@@ -1995,12 +1841,8 @@
       <c r="K39">
         <v>12</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>698</v>
       </c>
@@ -2028,12 +1870,8 @@
       <c r="K40">
         <v>12</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>699</v>
       </c>
@@ -2061,12 +1899,8 @@
       <c r="K41">
         <v>12</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>700</v>
       </c>
@@ -2094,12 +1928,8 @@
       <c r="K42">
         <v>12</v>
       </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>701</v>
       </c>
@@ -2127,12 +1957,8 @@
       <c r="K43">
         <v>12</v>
       </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>702</v>
       </c>
@@ -2160,12 +1986,8 @@
       <c r="K44">
         <v>12</v>
       </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>703</v>
       </c>
@@ -2193,12 +2015,8 @@
       <c r="K45">
         <v>12</v>
       </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>704</v>
       </c>
@@ -2226,12 +2044,8 @@
       <c r="K46">
         <v>12</v>
       </c>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>705</v>
       </c>
@@ -2259,12 +2073,8 @@
       <c r="K47">
         <v>12</v>
       </c>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>706</v>
       </c>
@@ -2290,10 +2100,6 @@
         <v>12</v>
       </c>
       <c r="K48">
-        <v>12</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
